--- a/DRL_UTE/Doc/FileUpload/diemTBHocKy.xlsx
+++ b/DRL_UTE/Doc/FileUpload/diemTBHocKy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC42D05B-097E-4A22-8877-1AE18510A58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCC24A-FBE8-4A70-BF76-BA535A979E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E368D24D-09EA-4FC1-9DEB-45ACD69ABB25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E368D24D-09EA-4FC1-9DEB-45ACD69ABB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hocKy</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>1811505310330</t>
+  </si>
+  <si>
+    <t>1811505310333</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EE2179-552C-4056-AE7B-0229E2487862}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,13 +432,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>222</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
